--- a/public/DataUpload/users-headers-2.xlsx
+++ b/public/DataUpload/users-headers-2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -49,7 +49,10 @@
     <t xml:space="preserve">berta77@example.net</t>
   </si>
   <si>
-    <t xml:space="preserve">Yesenia Gerlach IV</t>
+    <t xml:space="preserve">Yesenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerlach</t>
   </si>
   <si>
     <t xml:space="preserve">dejuan.ferry@example.net</t>
@@ -86,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -114,6 +117,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -164,7 +172,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -174,6 +182,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -265,7 +277,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -322,11 +334,11 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -334,13 +346,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -348,27 +360,27 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
+      <c r="A7" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -376,12 +388,12 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>

--- a/public/DataUpload/users-headers-2.xlsx
+++ b/public/DataUpload/users-headers-2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -34,7 +34,13 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">Enrique Kassulke</t>
+    <t xml:space="preserve">Madonna Hirthe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berta77@example.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enrique</t>
   </si>
   <si>
     <t xml:space="preserve">Actualizado</t>
@@ -43,12 +49,6 @@
     <t xml:space="preserve">mandy.hodkiewicz@example.org</t>
   </si>
   <si>
-    <t xml:space="preserve">Madonna Hirthe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">berta77@example.net</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yesenia</t>
   </si>
   <si>
@@ -58,18 +58,6 @@
     <t xml:space="preserve">dejuan.ferry@example.net</t>
   </si>
   <si>
-    <t xml:space="preserve">Garfield Ryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">london36@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Sipes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mazie24@example.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Geovany</t>
   </si>
   <si>
@@ -80,6 +68,27 @@
   </si>
   <si>
     <t xml:space="preserve">Lyric Leannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NULLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gloria.gomez@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djokovic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">novak.djokovic@tenis.com</t>
   </si>
 </sst>
 </file>
@@ -89,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -118,11 +127,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -172,7 +176,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -181,19 +185,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -277,7 +277,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -307,10 +307,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -318,12 +318,12 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -334,7 +334,7 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -345,14 +345,14 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -360,27 +360,27 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
+      <c r="A7" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -388,12 +388,14 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
